--- a/orte.xlsx
+++ b/orte.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -379,15 +379,10 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>wiki_data</t>
+          <t>place_of_birth</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>place_of_birth</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>place_of_death</t>
         </is>
@@ -399,7 +394,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Karl III. (Frankreich)</t>
+          <t>Karl_III._(Frankreich)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -409,15 +404,10 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'Ehepartner(in) (P26)': ['Eadgifu (Q268105)', 'Frederuna (Q272103)'], 'Geschlecht (P21)': 'männlich (Q6581097)', 'Vater (P22)': 'Ludwig II. (Q182840)', 'Mutter (P25)': 'Adelheid von Friaul (Q254095)', 'VIAF-Kennung (P214)': '37061323', 'ISNI (P213)': '0000 0000 8115 9865', 'Commons-Kategorie (P373)': 'Charles III of France', 'LCAuth-Kennung (P244)': 'n85356798', 'GND-Kennung (P227)': '118776746', 'Sterbeort (P20)': 'Péronne (Q217768)', 'Geburtsdatum (P569)': '+0879-09-17T00:00:00Z', 'Sterbedatum (P570)': '+0929-10-07T00:00:00Z', 'ist ein(e) (P31)': 'Mensch (Q5)', 'Freebase-Kennung (P646)': '/m/0kccp', 'Familie (P53)': 'Karolinger (Q133602)', 'Vorname (P735)': 'Karel (Q15731850)', 'NTA-Kennung (P1006)': '146902289', 'Personen-/Institutions-ID des Britischen Museum (P1711)': '105566', 'beschrieben in (P1343)': 'Armenian Encyclopedia (Q2657718)', 'CERL-Kennung (P1871)': 'cnp00588397', 'FAST-Kennung (P2163)': '172414', 'Adelstitel (P97)': [None, 'König des Fränkischen Reiches (Q22923081)'], 'Geburtsort (P19)': 'Péronne (Q217768)', 'WikiTree-Kennung (P2949)': 'Carolingian-75', 'Geschwister (P3373)': ['Ermentrud (Q48735)', None, 'Karlmann (Q192846)', 'Ludwig III. (Q193112)'], 'Tätigkeit (P106)': 'Monarch (Q116)', 'Name in Muttersprache (P1559)': 'Charles III le Simple', 'Bild (P18)': 'Rouget - Charles III of France.jpg', 'Notable-Names-Database-Kennung (P1263)': '177/000093895', 'Encyclopædia-Britannica-Online-Kennung (P1417)': 'biography/Charles-III-king-of-France', 'Encyclopædia Universalis-Kennung (P3219)': 'charles-iii-le-simple', 'Große-katalanische-Enzyklopädie-Kennung (P1296)': '0015061', 'Begräbnisort (P119)': 'Hauts-de-France (Q18677767)', 'BnF-Kennung (P268)': '13321854w', 'Kindred Britain ID (P3051)': 'I2520', 'Rodovid-ID (P1185)': '8642', 'SUDOC-Normdaten (P269)': '083846301', 'Schlüsselereignis (P793)': 'Posthumus (Q2106128)'}</t>
+          <t xml:space="preserve">Péronne </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Péronne </t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve">Péronne </t>
         </is>
@@ -429,7 +419,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Minamoto no Sanetomo</t>
+          <t>Minamoto_no_Sanetomo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -437,13 +427,8 @@
           <t>https://de.wikipedia.org/wiki/Minamoto_no_Sanetomo</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>{'Geschlecht (P21)': 'männlich (Q6581097)', 'Commons-Kategorie (P373)': 'Minamoto no Sanetomo', 'VIAF-Kennung (P214)': '75171941', 'ISNI (P213)': '0000 0000 8266 9824', 'Land der Staatsangehörigkeit (P27)': 'Japan (Q17)', 'GND-Kennung (P227)': '137022980', 'LCAuth-Kennung (P244)': 'n81055231', 'Mitglied von (P463)': 'Kamakura-Shōgunat (Q736839)', 'ist ein(e) (P31)': 'Mensch (Q5)', 'Geburtsdatum (P569)': '+1192-09-17T00:00:00Z', 'Sterbedatum (P570)': '+1219-02-13T00:00:00Z', 'NDL-Kennung (P349)': '00270829', 'Freebase-Kennung (P646)': '/m/019xrf', 'Sterbeort (P20)': 'Kamakura (Q200267)', 'Bild (P18)': 'Minamoto no Sanetomo.jpg', 'Tätigkeit (P106)': ['Dichter (Q49757)', 'Schriftsteller (Q36180)', 'Kalligraf (Q3303330)'], 'Vater (P22)': 'Minamoto no Yoritomo (Q242800)', 'Mutter (P25)': 'Hōjō Masako (Q463961)', 'öffentliches Amt oder Stellung (P39)': 'Shōgun (Q131767)', 'Ehepartner(in) (P26)': 'Bōmon Nobuko (Q498600)', 'gesprochene oder publizierte Sprachen (P1412)': 'Japanisch (Q5287)', 'FAST-Kennung (P2163)': '72813', 'Name in Muttersprache (P1559)': '源実朝', 'Todesart (P1196)': 'Tötungsdelikt (Q149086)', 'Encyclopædia Universalis-Kennung (P3219)': 'minamoto-no-sanetomo-1192-1219', 'Open-Library-Kennung (P648)': 'OL276303A', 'NTA-Kennung (P1006)': '252198697', 'CERL-Kennung (P1871)': 'cnp01164076', 'BnF-Kennung (P268)': '167640054', 'militärischer Dienstgrad (P410)': 'Shōgun (Q131767)', 'Personen-/Institutions-ID des Britischen Museum (P1711)': '5247'}</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve">Kamakura </t>
         </is>
@@ -455,7 +440,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Robert I. (Artois)</t>
+          <t>Robert_I._(Artois)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -465,15 +450,10 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'Vater (P22)': 'Ludwig VIII. (Q165284)', 'Mutter (P25)': 'Blanka von Kastilien (Q353)', 'Kind (P40)': ['Blanche d’Artois (Q242769)', 'Robert II. (Q262726)'], 'Ehepartner(in) (P26)': 'Mathilde von Brabant (Q264017)', 'Commons-Kategorie (P373)': 'Robert I of Artois', 'VIAF-Kennung (P214)': '81604884', 'Sterbeort (P20)': 'al-Mansura (Q223587)', 'Land der Staatsangehörigkeit (P27)': 'Frankreich (Q142)', 'GND-Kennung (P227)': '137409753', 'ist ein(e) (P31)': 'Mensch (Q5)', 'Geburtsdatum (P569)': '+1216-09-17T00:00:00Z', 'Sterbedatum (P570)': ['+1250-02-09T00:00:00Z', '+1250-02-08T00:00:00Z'], 'Bild (P18)': 'Robert1Artois.jpg', 'Freebase-Kennung (P646)': '/m/04jykf', 'Vorname (P735)': 'Robert (Q4927937)', 'Kriegseinsatz (P607)': 'Sechster Kreuzzug (Q51661)', 'WikiTree-Kennung (P2949)': 'Capet-662', 'Geschwister (P3373)': ['Isabelle de France (Q236952)', 'Ludwig IX. (Q346)', 'Karl I. (Q203829)', 'Jan van Maine (Q2496961)', 'Alfons von Poitiers (Q343969)'], 'Name in Muttersprache (P1559)': "Robert Ier d'Artois", 'Geburtsort (P19)': 'Frankreich (Q142)', 'Familie (P53)': 'Kapetinger (Q179544)', 'Adelstitel (P97)': 'Graf (Q3519259)', 'CERL-Kennung (P1871)': 'cnp01166805', 'Todesursache (P509)': 'im Einsatz getötet (Q210392)', 'Tätigkeit (P106)': 'Aristokrat (Q2478141)', 'Geschlecht (P21)': 'männlich (Q6581097)', 'Encyclopædia-Britannica-Online-Kennung (P1417)': 'biography/Robert-of-Artois-French-count', 'Rodovid-ID (P1185)': '12817'}</t>
+          <t xml:space="preserve">Frankreich </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frankreich </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve">al-Mansura </t>
         </is>
@@ -485,7 +465,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>William de Burgh, 3. Earl of Ulster</t>
+          <t>William_de_Burgh,_3._Earl_of_Ulster</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -493,13 +473,8 @@
           <t>https://de.wikipedia.org/wiki/William_de_Burgh,_3._Earl_of_Ulster</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>{'Geschlecht (P21)': 'männlich (Q6581097)', 'Kind (P40)': 'Elizabeth de Burgh, 4. Countess of Ulster (Q2519681)', 'Geburtsdatum (P569)': ['+1312-09-13T00:00:00Z', '+1312-09-17T00:00:00Z'], 'Sterbedatum (P570)': ['+1333-06-06T00:00:00Z', '+1333-06-06T00:00:00Z'], 'ist ein(e) (P31)': 'Mensch (Q5)', 'Freebase-Kennung (P646)': '/m/053khl', 'Vorname (P735)': 'William (Q12344159)', 'beschrieben in (P1343)': 'Dictionary of National Biography (Q15987216)', 'Ehepartner(in) (P26)': 'Matilda of Lancaster (Q6487725)', 'Mutter (P25)': 'Elizabeth de Clare (Q2002250)', 'Vater (P22)': 'John de Burgh (Q2739178)', 'WikiTree-Kennung (P2949)': 'Burgh-34', 'Dictionary of Ulster Biography-ID (P2029)': '376', 'Sterbeort (P20)': 'Carrickfergus (Q1020354)', 'Oxford Biography Index Number (P1415)': '4001', 'Geschwister (P3373)': 'Isabel de Verdon (Q6077823)', 'Adelstitel (P97)': 'Graf (Q3519259)', 'Tätigkeit (P106)': 'Aristokrat (Q2478141)', 'genealogics.org-Personenkennung (P1819)': 'I00027614', 'öffentliches Amt oder Stellung (P39)': 'Lord Lieutenant of Ireland (Q1752225)', 'Name in Muttersprache (P1559)': 'William de Burgh'}</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t xml:space="preserve">Carrickfergus </t>
         </is>
@@ -511,7 +486,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Basileios Komnenos der Jüngere</t>
+          <t>Basileios_Komnenos_der_Jüngere</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -521,15 +496,10 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'Geschlecht (P21)': 'männlich (Q6581097)', 'ist ein(e) (P31)': 'Mensch (Q5)', 'Vater (P22)': 'Alexios III. (Q537742)', 'Geburtsdatum (P569)': '+1358-09-17T00:00:00Z', 'Geburtsort (P19)': 'Trabzon (Q45301)', 'öffentliches Amt oder Stellung (P39)': 'Despot (Q889870)', 'Sterbedatum (P570)': '+1377-00-00T00:00:00Z'}</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
           <t xml:space="preserve">Trabzon </t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -537,7 +507,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Thomas Mowbray, 2. Earl of Nottingham</t>
+          <t>Thomas_Mowbray,_2._Earl_of_Nottingham</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -545,13 +515,8 @@
           <t>https://de.wikipedia.org/wiki/Thomas_Mowbray,_2._Earl_of_Nottingham</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>{'Geschlecht (P21)': 'männlich (Q6581097)', 'Vater (P22)': 'Thomas Mowbray, 1. Duke of Norfolk (Q711992)', 'Mutter (P25)': 'Elizabeth FitzAlan (Q5362776)', 'ist ein(e) (P31)': 'Mensch (Q5)', 'Sterbedatum (P570)': '+1405-06-08T00:00:00Z', 'Geburtsdatum (P569)': '+1385-01-01T00:00:00Z', 'Vorname (P735)': 'Thomas (Q16428906)', 'beschrieben in (P1343)': 'Dictionary of National Biography (Q15987216)', 'WikiTree-Kennung (P2949)': 'Mowbray-60', 'Geschwister (P3373)': 'John Mowbray, 2. Duke of Norfolk (Q1701151)', 'Todesursache (P509)': 'Enthauptung (Q204933)', 'Encyclopædia-Britannica-Online-Kennung (P1417)': 'biography/Thomas-Mowbray-2nd-Duke-of-Norfolk-Earl-of-Nottingham', 'Oxford Biography Index Number (P1415)': '19460', 'Adelstitel (P97)': 'Graf (Q3519259)', 'Tätigkeit (P106)': 'Aristokrat (Q2478141)'}</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -559,7 +524,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maria von Ungarn</t>
+          <t>Maria_von_Ungarn</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -569,15 +534,10 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'Geschlecht (P21)': 'weiblich (Q6581072)', 'Mutter (P25)': 'Johanna (Q171136)', 'Vater (P22)': 'Philipp I. (Q157098)', 'Ehepartner(in) (P26)': 'Ludwig II. (Q157092)', 'Begräbnisort (P119)': ['Panteón de Infantes (Q3893448)', 'Real Sitio de San Lorenzo de El Escorial (Q28471)'], 'Geburtsort (P19)': 'Brüssel (Q9005)', 'Commons-Kategorie (P373)': 'Mary of Habsburg', 'LCAuth-Kennung (P244)': 'n94037144', 'VIAF-Kennung (P214)': '77119805', 'GND-Kennung (P227)': '119170531', 'ISNI (P213)': '0000 0001 1475 4258', 'Sterbedatum (P570)': '+1558-10-18T00:00:00Z', 'Geburtsdatum (P569)': '+1505-09-15T00:00:00Z', 'ist ein(e) (P31)': 'Mensch (Q5)', 'Freebase-Kennung (P646)': '/m/03l5wr', 'Familie (P53)': ['spanisches Haus Habsburg (Q3624777)', 'Habsburg (Q65968)'], 'Bild (P18)': 'Mary (1505–1558), Queen of Hungary.jpg', 'Religionszugehörigkeit (P140)': 'Christentum (Q5043)', 'Sterbeort (P20)': 'Cigales (Q11985052)', 'Unterschrift (P109)': 'Signature Marie de Hongrie.svg', 'Vorname (P735)': ['Maria (Q325872)', 'Mary (Q734578)', 'Marie (Q632104)'], 'Sandrart.net-Personen-ID (P1422)': '213', 'BPN (P651)': '27388199', 'NTA-Kennung (P1006)': '070130531', 'Schlüsselereignis (P793)': ['Krönung (Q209715)', 'Krönung (Q209715)'], 'DVN Id (P1788)': 'hongarije', 'beschrieben in (P1343)': ['Enzyklopädisches Wörterbuch von Brockhaus-Efron (Q19180675)', 'Brockhaus-Efron (Q602358)', '1001 Vrouwen uit de Nederlandse geschiedenis (Q13423107)', 'Allgemeine Deutsche Biographie (Q590208)'], 'CERL-Kennung (P1871)': 'cnp00549090', 'DBNL-Autorenkennung (P723)': 'mari037', 'KH (P1818)': '13500', 'Encyclopædia-Britannica-Online-Kennung (P1417)': 'biography/Mary-of-Hungary', 'Geschwister (P3373)': ['Eleonore von Kastilien (Q156045)', 'Katharina von Kastilien (Q157834)', 'Isabella von Österreich (Q157884)', 'Ferdinand I. (Q150611)', 'Karl V. (Q32500)'], 'SELIBR-Kennung (P906)': '195758', 'AGORHA-Personen-/Institutionskennung (P2342)': '11461', 'Land der Staatsangehörigkeit (P27)': 'Belgien (Q31)', 'BnF-Kennung (P268)': '123664671', 'FAST-Kennung (P2163)': '1718930', 'Libris-URI (P5587)': 'qn245hr805jlq09', 'Open-Library-Kennung (P648)': 'OL6958306A', 'Adelstitel (P97)': ['Prinzessin (Q863048)', 'Königsgemahlin (Q719039)'], 'Verwandte (P1038)': ['Anna von Böhmen und Ungarn (Q233335)', 'Maximilian I. (Q150726)'], 'SUDOC-Normdaten (P269)': '032682131', 'Inhaber von (P1830)': ['Arnolfini-Porträt (Q220859)', 'domaine de Mariemont (Q2448543)'], 'Name in Muttersprache (P1559)': 'Maria von Ungarn', 'NKČR-Kennung (P691)': 'jx20060918023', 'Personen-/Institutions-ID des Britischen Museum (P1711)': '149684', 'Tätigkeit (P106)': 'Reichsverweser (Q477406)', 'öffentliches Amt oder Stellung (P39)': 'Reichsverweser (Q477406)', 'BHCL-Kennung (P6656)': '7240', 'FemBio-ID (P6722)': '18731', 'Große-katalanische-Enzyklopädie-Kennung (P1296)': '0040258'}</t>
+          <t xml:space="preserve">Brüssel </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brüssel </t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cigales </t>
         </is>
@@ -589,7 +549,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Laurentius Lindemann</t>
+          <t>Laurentius_Lindemann</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -599,15 +559,10 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{'ist ein(e) (P31)': 'Mensch (Q5)', 'Geschlecht (P21)': 'männlich (Q6581097)', 'GND-Kennung (P227)': '130336874', 'VIAF-Kennung (P214)': '70034566', 'Geburtsdatum (P569)': '+1520-01-01T00:00:00Z', 'Sterbedatum (P570)': '+1585-01-01T00:00:00Z', 'Tätigkeit (P106)': ['Jurist (Q185351)', 'Hochschullehrer (Q1622272)'], 'Vorname (P735)': 'Lorenz (Q15635254)', 'CERL-Kennung (P1871)': 'cnp00670326', 'Geburtsort (P19)': 'Leipzig (Q2079)', 'Sterbeort (P20)': 'Großsedlitz (Q1549570)', 'ISNI (P213)': '0000 0000 1737 4587', 'Arbeitgeber (P108)': ['Universität Greifswald (Q165528)', 'Leucorea (Q316592)'], 'Familienname (P734)': 'Lindemann (Q1826030)', 'NKČR-Kennung (P691)': 'ola2013765981'}</t>
+          <t xml:space="preserve">Leipzig </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leipzig </t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
         <is>
           <t xml:space="preserve">Großsedlitz </t>
         </is>
@@ -619,7 +574,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Anna Erika von Waldeck</t>
+          <t>Anna_Erika_von_Waldeck</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -629,15 +584,10 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'Geschlecht (P21)': 'weiblich (Q6581072)', 'Geburtsort (P19)': 'Korbach (Q500147)', 'Sterbeort (P20)': 'Residenzschloss Arolsen (Q877026)', 'Land der Staatsangehörigkeit (P27)': 'Deutschland (Q183)', 'GND-Kennung (P227)': '1033723398', 'VIAF-Kennung (P214)': '299571222', 'ist ein(e) (P31)': 'Mensch (Q5)', 'Sterbedatum (P570)': '+1611-08-11T00:00:00Z', 'Vorname (P735)': 'Anna (Q666578)', 'Geburtsdatum (P569)': '+1551-09-17T00:00:00Z', 'öffentliches Amt oder Stellung (P39)': 'Äbtissin (Q1646408)', 'Vater (P22)': 'Wolrad II. (Q87732)', 'Geschwister (P3373)': 'Josias I. (Q829673)', 'Tätigkeit (P106)': 'Nonne (Q191808)', 'CERL-Kennung (P1871)': 'cnp02073313'}</t>
+          <t xml:space="preserve">Korbach </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Korbach </t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
         <is>
           <t xml:space="preserve">Residenzschloss Arolsen </t>
         </is>
@@ -649,7 +599,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Paul V.</t>
+          <t>Paul_V.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -659,15 +609,10 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'Bild (P18)': 'Pope Paul V.jpg', 'Geburtsort (P19)': 'Rom (Q220)', 'Begräbnisort (P119)': 'Santa Maria Maggiore (Q186282)', 'Sterbeort (P20)': 'Rom (Q220)', 'öffentliches Amt oder Stellung (P39)': ['Papst (Q19546)', 'katholischer Bischof (Q611644)', 'Diözesanbischof (Q1144278)'], 'Geschlecht (P21)': 'männlich (Q6581097)', 'Commons-Kategorie (P373)': 'Paulus V', 'VIAF-Kennung (P214)': '5065712', 'ISNI (P213)': '0000 0001 2129 3250', 'LCAuth-Kennung (P244)': 'n85144319', 'GND-Kennung (P227)': '118739530', 'Geburtsdatum (P569)': '+1552-09-17T00:00:00Z', 'Sterbedatum (P570)': '+1621-01-28T00:00:00Z', 'ist ein(e) (P31)': 'Mensch (Q5)', 'Freebase-Kennung (P646)': '/m/0dvrm', 'BnF-Kennung (P268)': '13016268d', 'Todesursache (P509)': 'Schlaganfall (Q12202)', 'CANTIC-Kennung (P1273)': 'a10237343', 'Tätigkeit (P106)': ['Kleriker (Q2259532)', 'katholischer Priester (Q250867)'], 'Sandrart.net-Personen-ID (P1422)': '866', 'SUDOC-Normdaten (P269)': '035118792', 'NUKAT-Normdaten (P1207)': 'n2004040040', 'SELIBR-Kennung (P906)': '209383', 'NKČR-Kennung (P691)': 'jn20011024200', 'NTA-Kennung (P1006)': '072482745', 'ULAN-Kennung (P245)': '500257409', 'BAV-Kennung (P1017)': 'ADV11464551', 'NLA-Kennung (P409)': '35139953', 'Vorname (P735)': ['Paul (Q4925623)', 'Camillo (Q20000570)'], 'Religionszugehörigkeit (P140)': 'römisch-katholische Kirche (Q9592)', 'EMLO-ID (P1802)': '8df938d7-1cfe-447f-ad5b-84901a8ce80d', 'Personen-/Institutions-ID des Britischen Museum (P1711)': '41346', 'Geburtsname (P1477)': 'Camillo Borghèse', 'Verwandte (P1038)': 'Scipione Caffarelli-Borghese (Q452570)', 'Katholische-Hierarchie-Personen-ID (P1047)': 'borc', 'Todesart (P1196)': 'natürliche Todesursache (Q3739104)', 'Commons-Galerie (P935)': 'Paulus V', 'Große-katalanische-Enzyklopädie-Kennung (P1296)': '0049466', 'CERL-Kennung (P1871)': 'cnp01238319', 'FAST-Kennung (P2163)': '165205', 'beschrieben in (P1343)': ['Ottos Enzyklopädie (Q2041543)', 'Brockhaus-Efron (Q602358)', 'Enzyklopädisches Wörterbuch von Brockhaus-Efron (Q19180675)'], 'BNE-Kennung (P950)': 'XX1057029', 'besuchte Bildungseinrichtung (P69)': ['Universität Padua (Q193510)', 'Universität Bologna (Q131262)', 'Universität Perugia (Q748085)'], 'Geschwister (P3373)': 'Giovanni Battista Borghese (Q1525811)', 'SNAC-Kennung (P3430)': 'w6gb2qdf', 'openMLOL-Autorennummer (P3762)': ['8977', '113356', '127100'], 'Familienname (P734)': 'Borghese (Q29548387)', 'Familie (P53)': 'Borghese (Q241133)', 'Notable-Names-Database-Kennung (P1263)': '298/000095013', 'Wirkungsort (P937)': ['Rom (Q220)', 'Kirchenstaat (Q170174)'], 'Ehepartner(in) (P26)': 'novalue', 'Encyclopædia-Britannica-Online-Kennung (P1417)': 'biography/Paul-V', 'Dizionario biografico degli italiani (P1986)': 'papa-paolo-v', 'Encyclopædia Universalis-Kennung (P3219)': 'camillo-paul-v', 'CONOR-ID (P1280)': ['192388451', '101116515'], 'SBN-ID (P396)': 'IT\\ICCU\\SBLV\\311930', 'Universität-Barcelona-ID (P1580)': 'a1201831', 'Open-Library-Kennung (P648)': 'OL5442153A', 'Libris-URI (P5587)': 'wt79b52f5f1s0cp', 'NLI-Kennung (Israel) (P949)': '000470720', 'BanQ Autor ID (P3280)': '0000397433', 'RERO ID (P3065)': '02-A011242249', 'BLBNB ID (P4619)': '000316577', 'NLA-Personenkennung (P1315)': '839525', 'Konsekrator (P1598)': ['Clemens VIII. (Q170395)', 'Silvio Savelli (Q529223)', 'Francesco Corner (Q3080943)'], 'Land der Staatsangehörigkeit (P27)': 'Kirchenstaat (Q170174)', 'BHCL-Kennung (P6656)': '214692'}</t>
+          <t xml:space="preserve">Rom </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rom </t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
         <is>
           <t xml:space="preserve">Rom </t>
         </is>
@@ -679,7 +624,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Eduard Fortunat</t>
+          <t>Eduard_Fortunat</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -687,9 +632,16 @@
           <t>https://de.wikipedia.org/wiki/Eduard_Fortunat</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">London </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kastellaun </t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -697,7 +649,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Johannes Olearius (1611–1684)</t>
+          <t>Johannes_Olearius_(1611–1684)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -707,15 +659,10 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'Geburtsort (P19)': 'Halle (Saale) (Q2814)', 'Sterbeort (P20)': 'Weißenfels (Q14815)', 'besuchte Bildungseinrichtung (P69)': 'Leucorea (Q316592)', 'GND-Kennung (P227)': '10413660X', 'LCAuth-Kennung (P244)': 'n88085397', 'VIAF-Kennung (P214)': '52123211', 'Vater (P22)': 'Johannes Olearius (Q1250101)', 'ISNI (P213)': '0000 0000 8343 6467', 'Geburtsdatum (P569)': '+1611-09-07T00:00:00Z', 'Sterbedatum (P570)': '+1684-04-14T00:00:00Z', 'ist ein(e) (P31)': 'Mensch (Q5)', 'Freebase-Kennung (P646)': '/m/0w33_d5', 'Land der Staatsangehörigkeit (P27)': 'Deutschland (Q183)', 'BIBSYS-Kennung (P1015)': '12063452', 'MusicBrainz-Künstlerkennung (P434)': 'ddf88da6-5598-4fcf-833c-aa3de52dc4f9', 'Tätigkeit (P106)': ['Theologe (Q1234713)', 'Schriftsteller (Q36180)', 'Hochschullehrer (Q1622272)', 'Kirchenlieddichter (Q13424456)'], 'Vorname (P735)': 'Johannes (Q2117521)', 'NTA-Kennung (P1006)': '069949131', 'Wirkungsort (P937)': ['Lutherstadt Wittenberg (Q6837)', 'Halle (Saale) (Q2814)', 'Weißenfels (Q14815)'], 'Bild (P18)': 'Johannes Olearius (1611-1684).png', 'NKČR-Kennung (P691)': 'mzk2010587604', 'SELIBR-Kennung (P906)': '209887', 'NUKAT-Normdaten (P1207)': 'n2012275996', 'Open-Library-Kennung (P648)': 'OL5293155A', 'gesprochene oder publizierte Sprachen (P1412)': 'Deutsch (Q188)', 'FAST-Kennung (P2163)': '239751', 'beschrieben in (P1343)': 'Allgemeine Deutsche Biographie (Q590208)', 'Geschwister (P3373)': ['Tilemann Olearius (Q2433234)', 'Gottfried Olearius (Q990984)'], 'IMSLP-ID (P839)': 'Category:Olearius,_Johann', 'PRDL ID (P1463)': ['597', '5462'], 'Familienname (P734)': 'Olearius (Q21452570)', 'Kind (P40)': 'Johann Gottfried Olearius (Q1694134)', 'Religionszugehörigkeit (P140)': 'Evangelisch-lutherische Kirchen (Q75809)', 'Libris-URI (P5587)': 'pm1340f759j92mz', 'CERL-Kennung (P1871)': 'cnp00915625', 'Geschlecht (P21)': 'männlich (Q6581097)', 'Arbeitgeber (P108)': 'Leucorea (Q316592)'}</t>
+          <t xml:space="preserve">Halle (Saale) </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Halle (Saale) </t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
         <is>
           <t xml:space="preserve">Weißenfels </t>
         </is>
@@ -727,7 +674,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ranuccio II. Farnese</t>
+          <t>Ranuccio_II._Farnese</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -737,15 +684,10 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{'Mutter (P25)': 'Margherita de’ Medici (Q1100966)', 'Vater (P22)': 'Odoardo I. Farnese (Q506507)', 'Geschlecht (P21)': 'männlich (Q6581097)', 'Ehepartner(in) (P26)': [None, None, "Maria d'Este (Q2633673)"], 'Kind (P40)': ['Margherita Maria Farnese (Q2550274)', 'Odoardo II. Farnese (Q964936)', 'Francesco Farnese (Q555354)', 'Antonio Farnese (Q548485)'], 'Commons-Kategorie (P373)': 'Ranuccio II Farnese', 'GND-Kennung (P227)': '102328102', 'LCAuth-Kennung (P244)': 'nr00005945', 'Geburtsdatum (P569)': '+1630-09-17T00:00:00Z', 'Sterbedatum (P570)': '+1694-12-11T00:00:00Z', 'ist ein(e) (P31)': 'Mensch (Q5)', 'Sterbeort (P20)': 'Parma (Q2683)', 'Bild (P18)': 'Jacob Denys - Portrait of Ranuccio II.jpg', 'Freebase-Kennung (P646)': '/m/050jyt', 'Geburtsort (P19)': 'Parma (Q2683)', 'Familie (P53)': 'Farnese (Q859466)', 'Religionszugehörigkeit (P140)': 'römisch-katholische Kirche (Q9592)', 'Vorname (P735)': 'Renato (Q348946)', 'ULAN-Kennung (P245)': '500353735', 'genealogics.org-Personenkennung (P1819)': 'I00002992', 'CERL-Kennung (P1871)': 'cnp00980233', 'FAST-Kennung (P2163)': '1582224', 'WikiTree-Kennung (P2949)': 'Farnese-8', 'Geschwister (P3373)': ['Alessandro Farnese (Q554961)', 'Caterina Farnese (Q3663508)'], 'SNAC-Kennung (P3430)': 'w63b6qvc', 'RA Collections ID (P4553)': '10725', 'BAV-Kennung (P1017)': 'ADV12522663', 'ISNI (P213)': '0000 0000 4691 3455', 'Adelstitel (P97)': 'Herzog (Q166886)', 'Dizionario biografico degli italiani (P1986)': 'ranuccio-ii-farnese-duca-di-parma-e-piacenza', 'SUDOC-Normdaten (P269)': '183416570', 'Tätigkeit (P106)': 'Aristokrat (Q2478141)', 'VIAF-Kennung (P214)': '54535622', 'RKD-Künstlerkennung (P650)': '447828', 'Personen-/Institutions-ID des Britischen Museum (P1711)': '190268', 'Encyclopædia-Britannica-Online-Kennung (P1417)': 'biography/Ranuccio-II-Farnese', 'Wappenbild (P94)': 'Armoiries Parme 1592.svg', 'Unterschrift (P109)': 'Signature of Ranuccio II Farnese, Duke of Parma.png', 'Wirkungsort (P937)': ['Parma (Q2683)', 'Piacenza (Q13329)']}</t>
+          <t xml:space="preserve">Parma </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parma </t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
         <is>
           <t xml:space="preserve">Parma </t>
         </is>
@@ -757,7 +699,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Jacob Wächtler</t>
+          <t>Jacob_Wächtler</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -767,15 +709,10 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'GND-Kennung (P227)': '100682952', 'ist ein(e) (P31)': 'Mensch (Q5)', 'Geschlecht (P21)': 'männlich (Q6581097)', 'Geburtsdatum (P569)': '+1638-09-17T00:00:00Z', 'Sterbedatum (P570)': '+1702-11-04T00:00:00Z', 'Tätigkeit (P106)': 'Pastor (Q152002)', 'Geburtsort (P19)': 'Grimma (Q10780)', 'Sterbeort (P20)': 'Bad Belzig (Q523642)', 'VIAF-Kennung (P214)': '52042100', 'SELIBR-Kennung (P906)': '294288', 'ISNI (P213)': '0000 0000 5173 0207', 'Vorname (P735)': 'Jacob (Q25999604)', 'Libris-URI (P5587)': '20dhlgkl320h2hb', 'CERL-Kennung (P1871)': 'cnp00148448', 'BNE-Kennung (P950)': 'XX5634714', 'Religionszugehörigkeit (P140)': 'Evangelisch-lutherische Kirchen (Q75809)', 'Arbeitgeber (P108)': 'Leucorea (Q316592)'}</t>
+          <t xml:space="preserve">Grimma </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grimma </t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
         <is>
           <t xml:space="preserve">Bad Belzig </t>
         </is>
@@ -787,7 +724,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Johann Sigismund Küffner</t>
+          <t>Johann_Sigismund_Küffner</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -797,15 +734,10 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{'ist ein(e) (P31)': 'Mensch (Q5)', 'Geschlecht (P21)': 'männlich (Q6581097)', 'Geburtsdatum (P569)': '+1641-09-17T00:00:00Z', 'Sterbedatum (P570)': '+1710-02-07T00:00:00Z', 'GND-Kennung (P227)': '143598716', 'VIAF-Kennung (P214)': '168464858', 'Geburtsort (P19)': 'Kulmbach (Q157598)', 'CERL-Kennung (P1871)': 'cnp01281991'}</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
           <t xml:space="preserve">Kulmbach </t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -813,7 +745,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Samuel Heinrich König</t>
+          <t>Samuel_Heinrich_König</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -823,15 +755,10 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{'Geschlecht (P21)': 'männlich (Q6581097)', 'Geburtsort (P19)': 'Gerzensee (Q67014)', 'Sterbeort (P20)': 'Bern (Q70)', 'Land der Staatsangehörigkeit (P27)': 'Schweiz (Q39)', 'VIAF-Kennung (P214)': '80524592', 'GND-Kennung (P227)': '136127320', 'ISNI (P213)': '0000 0001 1679 3058', 'ist ein(e) (P31)': 'Mensch (Q5)', 'Geburtsdatum (P569)': '+1671-09-17T00:00:00Z', 'Sterbedatum (P570)': '+1750-05-30T00:00:00Z', 'Vorname (P735)': 'Samuel (Q629347)', 'Tätigkeit (P106)': ['Theologe (Q1234713)', 'Mathematiker (Q170790)'], 'NTA-Kennung (P1006)': '068597185', 'Bild (P18)': 'SamuelKönig.jpg', 'CERL-Kennung (P1871)': 'cnp01150291', 'HLS-Kennung (P902)': '9863', 'SELIBR-Kennung (P906)': '290407', 'beschrieben in (P1343)': 'Allgemeine Deutsche Biographie (Q590208)', 'Libris-URI (P5587)': 'pm147zw71zx2rt6', 'NKČR-Kennung (P691)': 'mzk2009510336', 'Religionszugehörigkeit (P140)': 'Protestantismus (Q23540)'}</t>
+          <t xml:space="preserve">Gerzensee </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gerzensee </t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
         <is>
           <t xml:space="preserve">Bern </t>
         </is>
@@ -843,7 +770,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ernst August II. von Hannover</t>
+          <t>Ernst_August_II._von_Hannover</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -853,15 +780,10 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'Mutter (P25)': 'Sophie von der Pfalz (Q57224)', 'Vater (P22)': 'Ernst August (Q372190)', 'Commons-Kategorie (P373)': 'Ernest Augustus, Duke of York and Albany', 'Geburtsort (P19)': 'Osnabrück (Q2916)', 'Sterbeort (P20)': 'Osnabrück (Q2916)', 'VIAF-Kennung (P214)': '54579325', 'GND-Kennung (P227)': '104207272', 'ist ein(e) (P31)': 'Mensch (Q5)', 'Freebase-Kennung (P646)': '/m/08khdq', 'Familie (P53)': 'Haus Hannover (Q157217)', 'Bild (P18)': 'Ernest August, Duke of York (1674-1728).jpg', 'Sterbedatum (P570)': '+1728-08-14T00:00:00Z', 'Geburtsdatum (P569)': '+1674-09-17T00:00:00Z', 'Vorname (P735)': 'Ernest (Q595105)', 'NTA-Kennung (P1006)': '352707593', 'Personen-/Institutions-ID des Britischen Museum (P1711)': ['139343', '107458'], 'beschrieben in (P1343)': ['Dictionary of National Biography (Q15987216)', 'Allgemeine Deutsche Biographie (Q590208)'], 'CERL-Kennung (P1871)': 'cnp00874388', 'Tätigkeit (P106)': 'katholischer Priester (Q250867)', 'Religionszugehörigkeit (P140)': 'Katholizismus (Q1841)', 'Six Degrees of Francis Bacon ID (P2401)': '10013278', 'WikiTree-Kennung (P2949)': 'Augustus-49', 'Geschwister (P3373)': ['Georg I. (Q130805)', 'Maximilian Wilhelm von Braunschweig und Lüneburg (Q68229)', 'Ernst August von Platen-Hallermund (Q9254722)', 'Sophie Charlotte von Hannover (Q57674)', 'Sophia Charlotte von Platen-Hallermund (Q74001)'], 'Find-A-Grave-Grabstättenkennung (P535)': '44830789', 'Begräbnisort (P119)': 'Welfenmausoleum (Q2807128)', 'NPG-Personenkennung (P1816)': 'mp51758', 'Oxford Biography Index Number (P1415)': '8839', 'ISNI (P213)': '0000 0000 0371 005X', 'Adelstitel (P97)': 'Herzog (Q166886)', 'Geschlecht (P21)': 'männlich (Q6581097)'}</t>
+          <t xml:space="preserve">Osnabrück </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Osnabrück </t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
         <is>
           <t xml:space="preserve">Osnabrück </t>
         </is>
@@ -873,7 +795,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Emanuel Teles de Silva</t>
+          <t>Emanuel_Teles_de_Silva</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -881,9 +803,16 @@
           <t>https://de.wikipedia.org/wiki/Emanuel_Teles_de_Silva</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lissabon </t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wien </t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
